--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\compañia\OFICINA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828C6726-B676-4281-8247-163D861746D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9FA2D0-3839-401D-8CB0-78C7AD947839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B13A714-C3B4-4269-BE38-DD0EC67D7936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3B13A714-C3B4-4269-BE38-DD0EC67D7936}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>FECHA</t>
   </si>
@@ -48,18 +55,12 @@
     <t>ELIZABETH SANDOVAL</t>
   </si>
   <si>
-    <t>GLL0927</t>
-  </si>
-  <si>
     <t>AGRIPAC</t>
   </si>
   <si>
     <t>ALFREDO SANDOVAL</t>
   </si>
   <si>
-    <t>GBP3078</t>
-  </si>
-  <si>
     <t>PAUL GRANJA</t>
   </si>
   <si>
@@ -73,6 +74,27 @@
   </si>
   <si>
     <t>PLASTICOS</t>
+  </si>
+  <si>
+    <t>destino</t>
+  </si>
+  <si>
+    <t>tia</t>
+  </si>
+  <si>
+    <t>rosado</t>
+  </si>
+  <si>
+    <t>montecristi</t>
+  </si>
+  <si>
+    <t>AFU 0919</t>
+  </si>
+  <si>
+    <t>GLL 0927</t>
+  </si>
+  <si>
+    <t>GBP 3078</t>
   </si>
 </sst>
 </file>
@@ -425,18 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5A2201-8F20-446F-B4DB-39F5682269F1}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +474,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45139</v>
       </c>
@@ -464,97 +489,118 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>8028894343</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45162</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
         <v>5382</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45168</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45169</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
       <c r="E5">
         <v>5430</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45170</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45167</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>8153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45168</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>8176</v>

--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9FA2D0-3839-401D-8CB0-78C7AD947839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3B13A714-C3B4-4269-BE38-DD0EC67D7936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>FECHA</t>
   </si>
@@ -95,16 +89,35 @@
   </si>
   <si>
     <t>GBP 3078</t>
+  </si>
+  <si>
+    <t>WILLIAM PEREZ</t>
+  </si>
+  <si>
+    <t>PTO 0223</t>
+  </si>
+  <si>
+    <t>MILTON ABRIL</t>
+  </si>
+  <si>
+    <t>AAY 0116</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,18 +453,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5A2201-8F20-446F-B4DB-39F5682269F1}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +620,76 @@
         <v>8176</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8028900933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8028903819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8028914647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8028915110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>FECHA</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>AAY 0116</t>
+  </si>
+  <si>
+    <t>MARCELO ABRIL</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +588,9 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="E6">
+        <v>30334667</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -686,6 +692,23 @@
       </c>
       <c r="E12" s="2">
         <v>8028915110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5463</v>
       </c>
     </row>
   </sheetData>

--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>FECHA</t>
   </si>
@@ -456,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,21 +583,21 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>30334667</v>
+        <v>30334665</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45167</v>
+        <v>45170</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -606,12 +606,12 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>8153</v>
+        <v>30334667</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45168</v>
+        <v>45167</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -623,24 +623,24 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>8176</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45174</v>
+        <v>45168</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8028900933</v>
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>8176</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,30 +651,30 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
-        <v>8028903819</v>
+        <v>8028900933</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45177</v>
+        <v>45174</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
-        <v>8028914647</v>
+        <v>8028903819</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,29 +685,46 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
-        <v>8028915110</v>
+        <v>8028914647</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8028915110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45181</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>5463</v>
       </c>
     </row>

--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>FECHA</t>
   </si>
@@ -104,6 +104,39 @@
   </si>
   <si>
     <t>MARCELO ABRIL</t>
+  </si>
+  <si>
+    <t>ESMERALDAS</t>
+  </si>
+  <si>
+    <t>GSB 3779</t>
+  </si>
+  <si>
+    <t>GBN 8358</t>
+  </si>
+  <si>
+    <t>POS 0267</t>
+  </si>
+  <si>
+    <t>WILLIAM PÉREZ</t>
+  </si>
+  <si>
+    <t>EDER LÓPEZ</t>
+  </si>
+  <si>
+    <t>JEFFERSON GRANJA</t>
+  </si>
+  <si>
+    <t>Gerardo O. Quito</t>
+  </si>
+  <si>
+    <t>PT CUENCA</t>
+  </si>
+  <si>
+    <t>ROSADO</t>
+  </si>
+  <si>
+    <t>TUTI</t>
   </si>
 </sst>
 </file>
@@ -126,15 +159,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,14 +181,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +757,9 @@
       <c r="E11" s="2">
         <v>8028903819</v>
       </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -693,6 +777,9 @@
       <c r="E12" s="2">
         <v>8028914647</v>
       </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -710,8 +797,11 @@
       <c r="E13" s="2">
         <v>8028915110</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45181</v>
       </c>
@@ -726,6 +816,146 @@
       </c>
       <c r="E14" s="2">
         <v>5463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8028916889</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>45177</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8028916733</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>45180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8028920609</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>45180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8028920672</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>45180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8028920679</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>45180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8028921572</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>45180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8028920640</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>FECHA</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>TUTI</t>
+  </si>
+  <si>
+    <t>PAB 2383</t>
   </si>
 </sst>
 </file>
@@ -173,36 +176,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -213,23 +192,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A15" sqref="A15:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45181</v>
       </c>
@@ -818,11 +793,11 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>45178</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -831,132 +806,150 @@
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>8028916889</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>45177</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>8028916733</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>45180</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>8028920609</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>45180</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>8028920672</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>45180</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>8028920679</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>45180</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>8028921572</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>45180</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="6">
         <v>8028920640</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>45182</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6">
+        <v>30335356</v>
+      </c>
+      <c r="F22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>FECHA</t>
   </si>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,6 +206,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,6 +952,34 @@
       </c>
       <c r="F22" s="4"/>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6">
+        <v>30335148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -513,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>30334667</v>
+        <v>30334666</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,6 +978,9 @@
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="E24" s="6">
+        <v>30334667</v>
       </c>
     </row>
   </sheetData>

--- a/LISTAGUIAS.xlsx
+++ b/LISTAGUIAS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>FECHA</t>
   </si>
@@ -513,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45181</v>
+        <v>45175</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -978,6 +978,9 @@
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E24" s="6">
         <v>30334667</v>
